--- a/application/views/rpt/ru/StockTable.xlsx
+++ b/application/views/rpt/ru/StockTable.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iSell\www\isell\application\views\rpt\ru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -79,9 +84,6 @@
     <t>{$v-&gt;stock-&gt;rows[]-&gt;barcode}</t>
   </si>
   <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyze_type}</t>
-  </si>
-  <si>
     <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_class}</t>
   </si>
   <si>
@@ -155,6 +157,9 @@
   </si>
   <si>
     <t>{$v-&gt;stock-&gt;rows[]-&gt;self_price}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_type}</t>
   </si>
 </sst>
 </file>
@@ -484,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,27 +735,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="18"/>
-    <col min="18" max="18" width="14.42578125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="18" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="64.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="18" customWidth="1"/>
+    <col min="7" max="17" width="9.125" style="18"/>
+    <col min="18" max="18" width="14.375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="9.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -794,64 +799,64 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>11</v>
@@ -913,16 +918,16 @@
         <v>20</v>
       </c>
       <c r="T4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="W4" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/application/views/rpt/ru/StockTable.xlsx
+++ b/application/views/rpt/ru/StockTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iSell\www\isell\application\views\rpt\ru\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>п/п</t>
   </si>
@@ -75,24 +70,9 @@
     <t>{$v-&gt;stock-&gt;rows[]-&gt;product_volume}</t>
   </si>
   <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;party_label}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;product_uktzet}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;barcode}</t>
-  </si>
-  <si>
     <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_class}</t>
   </si>
   <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_group}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_section}</t>
-  </si>
-  <si>
     <t>Ед</t>
   </si>
   <si>
@@ -126,24 +106,15 @@
     <t>Объем</t>
   </si>
   <si>
-    <t>Партия</t>
-  </si>
-  <si>
     <t>Штрихкод</t>
   </si>
   <si>
     <t>Тип</t>
   </si>
   <si>
-    <t>Группа</t>
-  </si>
-  <si>
     <t>Класс</t>
   </si>
   <si>
-    <t>Отдел</t>
-  </si>
-  <si>
     <t>Таблица склада ({$v-&gt;cat_name}) на {$v-&gt;date}</t>
   </si>
   <si>
@@ -160,6 +131,24 @@
   </si>
   <si>
     <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_type}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_origin}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;product_barcode}</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;analyse_brand}</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;product_article}</t>
   </si>
 </sst>
 </file>
@@ -219,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,11 +337,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -371,12 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -402,13 +411,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,6 +423,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,54 +751,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="64.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="5.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="18" customWidth="1"/>
-    <col min="7" max="17" width="9.125" style="18"/>
-    <col min="18" max="18" width="14.375" style="18" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="18" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="18"/>
+    <col min="1" max="1" width="3.5703125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="16" customWidth="1"/>
+    <col min="7" max="17" width="9.140625" style="16"/>
+    <col min="18" max="18" width="17.28515625" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -788,183 +804,176 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="S3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="U3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="Q4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>23</v>
+      <c r="T4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="17"/>
+    <row r="5" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">

--- a/application/views/rpt/ru/StockTable.xlsx
+++ b/application/views/rpt/ru/StockTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\iSell\www\isell\application\views\rpt\ru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="1596" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица склада" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>п/п</t>
   </si>
@@ -149,6 +154,18 @@
   </si>
   <si>
     <t>{$v-&gt;stock-&gt;rows[]-&gt;product_article}</t>
+  </si>
+  <si>
+    <t>Резерв</t>
+  </si>
+  <si>
+    <t>Ожидается</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;product_reserved}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;product_awaiting}</t>
   </si>
 </sst>
 </file>
@@ -367,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -417,25 +434,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,64 +771,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="16" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="16"/>
-    <col min="18" max="18" width="17.28515625" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="16" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" style="16" customWidth="1"/>
+    <col min="9" max="19" width="9.109375" style="16"/>
+    <col min="20" max="20" width="17.33203125" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="7" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:22" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -824,62 +848,68 @@
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="X3" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -892,63 +922,69 @@
         <v>10</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="R4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="S4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="T4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
       <c r="D5" s="13"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -962,18 +998,22 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:X1"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">

--- a/application/views/rpt/ru/StockTable.xlsx
+++ b/application/views/rpt/ru/StockTable.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">{$v-&gt;stock-&gt;rows[]-&gt;analyse_origin}</t>
   </si>
   <si>
-    <t xml:space="preserve">{$v→stock→rows[]→party_label}</t>
+    <t xml:space="preserve">{$v-&gt;stock-&gt;rows[]-&gt;party_label}</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,10 +453,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,20 +575,20 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
+      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="9" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="9" style="1" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="21" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="21" style="1" width="9.12"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,7 +768,7 @@
       <c r="S4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="U4" s="19" t="s">
@@ -784,50 +780,50 @@
       <c r="W4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="23" t="s">
         <v>50</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="29"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="28"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="AMJ6" s="0"/>
     </row>
   </sheetData>

--- a/application/views/rpt/ru/StockTable.xlsx
+++ b/application/views/rpt/ru/StockTable.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Таблица склада" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -185,7 +185,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,12 +209,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -363,128 +357,120 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,13 +483,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -574,256 +553,245 @@
   </sheetPr>
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="9" style="1" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="21" style="1" width="9.12"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="21" t="s">
         <v>50</v>
       </c>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="28"/>
+    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="26"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="AMJ6" s="0"/>
     </row>
   </sheetData>
@@ -837,11 +805,11 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>